--- a/stock_list/sheet1.xlsx
+++ b/stock_list/sheet1.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOUMIK\Documents\stock_sccreener\stock_list\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F025A122-5130-48CF-963D-710123E63A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -136,8 +130,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,14 +211,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -271,7 +257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,27 +289,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,24 +323,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,18 +498,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -593,7 +539,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -604,13 +550,13 @@
         <v>26</v>
       </c>
       <c r="D3" s="3">
-        <v>572.70000000000005</v>
+        <v>572.7</v>
       </c>
       <c r="E3" s="4">
         <v>7.01</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -627,7 +573,7 @@
         <v>13.52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -641,10 +587,10 @@
         <v>764.1</v>
       </c>
       <c r="E5" s="3">
-        <v>74.290000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74.29000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -661,7 +607,7 @@
         <v>48.65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -678,7 +624,7 @@
         <v>85.03</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -695,7 +641,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -709,10 +655,10 @@
         <v>3935</v>
       </c>
       <c r="E9" s="3">
-        <v>65.569999999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65.56999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -729,7 +675,7 @@
         <v>48.41</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -746,7 +692,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -760,10 +706,10 @@
         <v>876.05</v>
       </c>
       <c r="E12" s="3">
-        <v>37.479999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -777,7 +723,7 @@
         <v>719.9</v>
       </c>
       <c r="E13" s="3">
-        <v>77.790000000000006</v>
+        <v>77.79000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/stock_list/sheet1.xlsx
+++ b/stock_list/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Company Name</t>
   </si>
@@ -25,113 +25,80 @@
     <t>Symbol</t>
   </si>
   <si>
+    <t>mother_previous_high</t>
+  </si>
+  <si>
+    <t>mother_previous_low</t>
+  </si>
+  <si>
+    <t>mother_RSI</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
     <t>one_yr_return</t>
   </si>
   <si>
-    <t>Adani Energy Solutions Ltd.</t>
-  </si>
-  <si>
-    <t>Dabur India Ltd.</t>
-  </si>
-  <si>
-    <t>HDFC Life Insurance Company Ltd.</t>
-  </si>
-  <si>
-    <t>Aditya Birla Sun Life AMC Ltd.</t>
-  </si>
-  <si>
-    <t>Alembic Pharmaceuticals Ltd.</t>
-  </si>
-  <si>
-    <t>Amber Enterprises India Ltd.</t>
-  </si>
-  <si>
-    <t>Atul Ltd.</t>
-  </si>
-  <si>
-    <t>BEML Ltd.</t>
-  </si>
-  <si>
-    <t>BLS International Services Ltd.</t>
-  </si>
-  <si>
-    <t>CCL Products (I) Ltd.</t>
-  </si>
-  <si>
-    <t>Century Plyboards (India) Ltd.</t>
-  </si>
-  <si>
-    <t>Elecon Engineering Co. Ltd.</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>Fast Moving Consumer Goods</t>
+    <t>Central Bank of India</t>
+  </si>
+  <si>
+    <t>Equitas Small Finance Bank Ltd.</t>
+  </si>
+  <si>
+    <t>Jyoti CNC Automation Ltd.</t>
+  </si>
+  <si>
+    <t>AIA Engineering Ltd.</t>
+  </si>
+  <si>
+    <t>FSN E-Commerce Ventures Ltd.</t>
+  </si>
+  <si>
+    <t>KPIT Technologies Ltd.</t>
+  </si>
+  <si>
+    <t>MphasiS Ltd.</t>
   </si>
   <si>
     <t>Financial Services</t>
   </si>
   <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Consumer Durables</t>
-  </si>
-  <si>
-    <t>Chemicals</t>
-  </si>
-  <si>
     <t>Capital Goods</t>
   </si>
   <si>
     <t>Consumer Services</t>
   </si>
   <si>
-    <t>ADANIENSOL</t>
-  </si>
-  <si>
-    <t>DABUR</t>
-  </si>
-  <si>
-    <t>HDFCLIFE</t>
-  </si>
-  <si>
-    <t>ABSLAMC</t>
-  </si>
-  <si>
-    <t>APLLTD</t>
-  </si>
-  <si>
-    <t>AMBER</t>
-  </si>
-  <si>
-    <t>ATUL</t>
-  </si>
-  <si>
-    <t>BEML</t>
-  </si>
-  <si>
-    <t>BLS</t>
-  </si>
-  <si>
-    <t>CCL</t>
-  </si>
-  <si>
-    <t>CENTURYPLY</t>
-  </si>
-  <si>
-    <t>ELECON</t>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>CENTRALBK</t>
+  </si>
+  <si>
+    <t>EQUITASBNK</t>
+  </si>
+  <si>
+    <t>JYOTICNC</t>
+  </si>
+  <si>
+    <t>AIAENG</t>
+  </si>
+  <si>
+    <t>NYKAA</t>
+  </si>
+  <si>
+    <t>KPITTECH</t>
+  </si>
+  <si>
+    <t>MPHASIS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,14 +116,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF008000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -197,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -205,6 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,13 +474,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,209 +496,196 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2">
+        <v>60.42</v>
+      </c>
+      <c r="E2" s="2">
+        <v>57.05</v>
+      </c>
+      <c r="F2" s="2">
+        <v>47.77</v>
+      </c>
+      <c r="G2" s="3">
+        <v>59.19</v>
+      </c>
+      <c r="H2" s="3">
+        <v>17.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>69.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>18.53</v>
+      </c>
+      <c r="G3" s="3">
+        <v>70.3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-33.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1149</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1101.05</v>
+      </c>
+      <c r="F4" s="2">
+        <v>46.27</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1114</v>
+      </c>
+      <c r="H4" s="5">
+        <v>156.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4275</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4125.2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>43.56</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4163.85</v>
+      </c>
+      <c r="H5" s="3">
+        <v>13.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2">
+        <v>187.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>180.5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>27.74</v>
+      </c>
+      <c r="G6" s="5">
+        <v>184.15</v>
+      </c>
+      <c r="H6" s="3">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1822.9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1755</v>
+      </c>
+      <c r="F7" s="2">
+        <v>68.37</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1782</v>
+      </c>
+      <c r="H7" s="5">
+        <v>20.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="3">
-        <v>1020</v>
-      </c>
-      <c r="E2" s="3">
-        <v>31.63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="3">
-        <v>572.7</v>
-      </c>
-      <c r="E3" s="4">
-        <v>7.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3">
-        <v>726.1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>13.52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="3">
-        <v>764.1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>74.29000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1184</v>
-      </c>
-      <c r="E6" s="3">
-        <v>48.65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5475</v>
-      </c>
-      <c r="E7" s="3">
-        <v>85.03</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="3">
-        <v>7790</v>
-      </c>
-      <c r="E8" s="4">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3935</v>
-      </c>
-      <c r="E9" s="3">
-        <v>65.56999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="3">
-        <v>379.15</v>
-      </c>
-      <c r="E10" s="3">
-        <v>48.41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3">
-        <v>658.7</v>
-      </c>
-      <c r="E11" s="4">
-        <v>4.04</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3">
-        <v>876.05</v>
-      </c>
-      <c r="E12" s="3">
-        <v>37.48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3">
-        <v>719.9</v>
-      </c>
-      <c r="E13" s="3">
-        <v>77.79000000000001</v>
+      <c r="D8" s="2">
+        <v>3109</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2947</v>
+      </c>
+      <c r="F8" s="2">
+        <v>51.88</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3095.75</v>
+      </c>
+      <c r="H8" s="3">
+        <v>15.56</v>
       </c>
     </row>
   </sheetData>
